--- a/UK_Covid_cases_january03.xlsx
+++ b/UK_Covid_cases_january03.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10914"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11012"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Jasmina/covasim/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robynstuart/Documents/git/Covid-19-Analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A416B38-E770-484D-AA76-4B07070871DD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33F6A33F-74AF-B74A-AD05-F207FD381E7C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="460" windowWidth="21100" windowHeight="14040" xr2:uid="{89CAA713-5904-1B4E-B911-FFEBE3A898C3}"/>
   </bookViews>
@@ -43,7 +43,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -398,13 +398,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98BED666-324D-1C41-98A1-291EC231EA07}">
   <dimension ref="A1:F350"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView tabSelected="1" topLeftCell="A323" workbookViewId="0">
+      <selection activeCell="B350" sqref="B350"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -418,7 +418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:4">
       <c r="A2" s="1">
         <v>43851</v>
       </c>
@@ -432,7 +432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:4">
       <c r="A3" s="1">
         <v>43852</v>
       </c>
@@ -446,7 +446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:4">
       <c r="A4" s="1">
         <v>43853</v>
       </c>
@@ -460,7 +460,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:4">
       <c r="A5" s="1">
         <v>43854</v>
       </c>
@@ -474,7 +474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:4">
       <c r="A6" s="1">
         <v>43855</v>
       </c>
@@ -488,7 +488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:4">
       <c r="A7" s="1">
         <v>43856</v>
       </c>
@@ -502,7 +502,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:4">
       <c r="A8" s="1">
         <v>43857</v>
       </c>
@@ -516,7 +516,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:4">
       <c r="A9" s="1">
         <v>43858</v>
       </c>
@@ -530,7 +530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:4">
       <c r="A10" s="1">
         <v>43859</v>
       </c>
@@ -544,7 +544,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:4">
       <c r="A11" s="1">
         <v>43860</v>
       </c>
@@ -558,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:4">
       <c r="A12" s="1">
         <v>43861</v>
       </c>
@@ -572,7 +572,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:4">
       <c r="A13" s="1">
         <v>43862</v>
       </c>
@@ -586,7 +586,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:4">
       <c r="A14" s="1">
         <v>43863</v>
       </c>
@@ -600,7 +600,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:4">
       <c r="A15" s="1">
         <v>43864</v>
       </c>
@@ -614,7 +614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:4">
       <c r="A16" s="1">
         <v>43865</v>
       </c>
@@ -628,7 +628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:4">
       <c r="A17" s="1">
         <v>43866</v>
       </c>
@@ -642,7 +642,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:4">
       <c r="A18" s="1">
         <v>43867</v>
       </c>
@@ -656,7 +656,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:4">
       <c r="A19" s="1">
         <v>43868</v>
       </c>
@@ -670,7 +670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:4">
       <c r="A20" s="1">
         <v>43869</v>
       </c>
@@ -684,7 +684,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:4">
       <c r="A21" s="1">
         <v>43870</v>
       </c>
@@ -698,7 +698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:4">
       <c r="A22" s="1">
         <v>43871</v>
       </c>
@@ -712,7 +712,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:4">
       <c r="A23" s="1">
         <v>43872</v>
       </c>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:4">
       <c r="A24" s="1">
         <v>43873</v>
       </c>
@@ -740,7 +740,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:4">
       <c r="A25" s="1">
         <v>43874</v>
       </c>
@@ -754,7 +754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:4">
       <c r="A26" s="1">
         <v>43875</v>
       </c>
@@ -768,7 +768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:4">
       <c r="A27" s="1">
         <v>43876</v>
       </c>
@@ -782,7 +782,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:4">
       <c r="A28" s="1">
         <v>43877</v>
       </c>
@@ -796,7 +796,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:4">
       <c r="A29" s="1">
         <v>43878</v>
       </c>
@@ -810,7 +810,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:4">
       <c r="A30" s="1">
         <v>43879</v>
       </c>
@@ -824,7 +824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:4">
       <c r="A31" s="1">
         <v>43880</v>
       </c>
@@ -838,7 +838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:4">
       <c r="A32" s="1">
         <v>43881</v>
       </c>
@@ -852,7 +852,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:4">
       <c r="A33" s="1">
         <v>43882</v>
       </c>
@@ -866,7 +866,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:4">
       <c r="A34" s="1">
         <v>43883</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:4">
       <c r="A35" s="1">
         <v>43884</v>
       </c>
@@ -894,7 +894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:4">
       <c r="A36" s="1">
         <v>43885</v>
       </c>
@@ -908,7 +908,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:4">
       <c r="A37" s="1">
         <v>43886</v>
       </c>
@@ -922,7 +922,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:4">
       <c r="A38" s="1">
         <v>43887</v>
       </c>
@@ -936,7 +936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:4">
       <c r="A39" s="1">
         <v>43888</v>
       </c>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:4">
       <c r="A40" s="1">
         <v>43889</v>
       </c>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:4">
       <c r="A41" s="1">
         <v>43890</v>
       </c>
@@ -978,7 +978,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:4">
       <c r="A42" s="1">
         <v>43891</v>
       </c>
@@ -992,7 +992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:4">
       <c r="A43" s="1">
         <v>43892</v>
       </c>
@@ -1006,7 +1006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:4">
       <c r="A44" s="1">
         <v>43893</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:4">
       <c r="A45" s="1">
         <v>43894</v>
       </c>
@@ -1034,7 +1034,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:4">
       <c r="A46" s="1">
         <v>43895</v>
       </c>
@@ -1048,7 +1048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:4">
       <c r="A47" s="1">
         <v>43896</v>
       </c>
@@ -1062,7 +1062,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:4">
       <c r="A48" s="1">
         <v>43897</v>
       </c>
@@ -1076,7 +1076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:4">
       <c r="A49" s="1">
         <v>43898</v>
       </c>
@@ -1090,7 +1090,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:4">
       <c r="A50" s="1">
         <v>43899</v>
       </c>
@@ -1104,7 +1104,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:4">
       <c r="A51" s="1">
         <v>43900</v>
       </c>
@@ -1118,7 +1118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:4">
       <c r="A52" s="1">
         <v>43901</v>
       </c>
@@ -1132,7 +1132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:4">
       <c r="A53" s="1">
         <v>43902</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:4">
       <c r="A54" s="1">
         <v>43903</v>
       </c>
@@ -1160,7 +1160,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:4">
       <c r="A55" s="1">
         <v>43904</v>
       </c>
@@ -1174,7 +1174,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:4">
       <c r="A56" s="1">
         <v>43905</v>
       </c>
@@ -1188,7 +1188,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:4">
       <c r="A57" s="1">
         <v>43906</v>
       </c>
@@ -1202,7 +1202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:4">
       <c r="A58" s="1">
         <v>43907</v>
       </c>
@@ -1216,7 +1216,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:4">
       <c r="A59" s="1">
         <v>43908</v>
       </c>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:4">
       <c r="A60" s="1">
         <v>43909</v>
       </c>
@@ -1244,7 +1244,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:4">
       <c r="A61" s="1">
         <v>43910</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:4">
       <c r="A62" s="1">
         <v>43911</v>
       </c>
@@ -1272,7 +1272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:4">
       <c r="A63" s="1">
         <v>43912</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:4">
       <c r="A64" s="1">
         <v>43913</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>4861</v>
       </c>
     </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:4">
       <c r="A65" s="1">
         <v>43914</v>
       </c>
@@ -1314,7 +1314,7 @@
         <v>6580</v>
       </c>
     </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:4">
       <c r="A66" s="1">
         <v>43915</v>
       </c>
@@ -1328,7 +1328,7 @@
         <v>8664</v>
       </c>
     </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:4">
       <c r="A67" s="1">
         <v>43916</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>10593</v>
       </c>
     </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:4">
       <c r="A68" s="1">
         <v>43917</v>
       </c>
@@ -1356,7 +1356,7 @@
         <v>12818</v>
       </c>
     </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:4">
       <c r="A69" s="1">
         <v>43918</v>
       </c>
@@ -1370,7 +1370,7 @@
         <v>15011</v>
       </c>
     </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:4">
       <c r="A70" s="1">
         <v>43919</v>
       </c>
@@ -1384,7 +1384,7 @@
         <v>17501</v>
       </c>
     </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:4">
       <c r="A71" s="1">
         <v>43920</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>20690</v>
       </c>
     </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:4">
       <c r="A72" s="1">
         <v>43921</v>
       </c>
@@ -1412,7 +1412,7 @@
         <v>23523</v>
       </c>
     </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:4">
       <c r="A73" s="1">
         <v>43922</v>
       </c>
@@ -1426,7 +1426,7 @@
         <v>27088</v>
       </c>
     </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:4">
       <c r="A74" s="1">
         <v>43923</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>30372</v>
       </c>
     </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:4">
       <c r="A75" s="1">
         <v>43924</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>33302</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:4">
       <c r="A76" s="1">
         <v>43925</v>
       </c>
@@ -1468,7 +1468,7 @@
         <v>36223</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:4">
       <c r="A77" s="1">
         <v>43926</v>
       </c>
@@ -1482,7 +1482,7 @@
         <v>39137</v>
       </c>
     </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:4">
       <c r="A78" s="1">
         <v>43927</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>42184</v>
       </c>
     </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:4">
       <c r="A79" s="1">
         <v>43928</v>
       </c>
@@ -1510,7 +1510,7 @@
         <v>45334</v>
       </c>
     </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:4">
       <c r="A80" s="1">
         <v>43929</v>
       </c>
@@ -1524,7 +1524,7 @@
         <v>48301</v>
       </c>
     </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:4">
       <c r="A81" s="1">
         <v>43930</v>
       </c>
@@ -1538,7 +1538,7 @@
         <v>50930</v>
       </c>
     </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:4">
       <c r="A82" s="1">
         <v>43931</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>53392</v>
       </c>
     </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:4">
       <c r="A83" s="1">
         <v>43932</v>
       </c>
@@ -1566,7 +1566,7 @@
         <v>55555</v>
       </c>
     </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:4">
       <c r="A84" s="1">
         <v>43933</v>
       </c>
@@ -1580,7 +1580,7 @@
         <v>57621</v>
       </c>
     </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:4">
       <c r="A85" s="1">
         <v>43934</v>
       </c>
@@ -1594,7 +1594,7 @@
         <v>59781</v>
       </c>
     </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:4">
       <c r="A86" s="1">
         <v>43935</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>61869</v>
       </c>
     </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:4">
       <c r="A87" s="1">
         <v>43936</v>
       </c>
@@ -1622,7 +1622,7 @@
         <v>63749</v>
       </c>
     </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:4">
       <c r="A88" s="1">
         <v>43937</v>
       </c>
@@ -1636,7 +1636,7 @@
         <v>65760</v>
       </c>
     </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:4">
       <c r="A89" s="1">
         <v>43938</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>67727</v>
       </c>
     </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:4">
       <c r="A90" s="1">
         <v>43939</v>
       </c>
@@ -1664,7 +1664,7 @@
         <v>69356</v>
       </c>
     </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:4">
       <c r="A91" s="1">
         <v>43940</v>
       </c>
@@ -1678,7 +1678,7 @@
         <v>71013</v>
       </c>
     </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:4">
       <c r="A92" s="1">
         <v>43941</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>72749</v>
       </c>
     </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:4">
       <c r="A93" s="1">
         <v>43942</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>74462</v>
       </c>
     </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:4">
       <c r="A94" s="1">
         <v>43943</v>
       </c>
@@ -1720,7 +1720,7 @@
         <v>75991</v>
       </c>
     </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:4">
       <c r="A95" s="1">
         <v>43944</v>
       </c>
@@ -1734,7 +1734,7 @@
         <v>77504</v>
       </c>
     </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:4">
       <c r="A96" s="1">
         <v>43945</v>
       </c>
@@ -1748,7 +1748,7 @@
         <v>79029</v>
       </c>
     </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:4">
       <c r="A97" s="1">
         <v>43946</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>80283</v>
       </c>
     </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:4">
       <c r="A98" s="1">
         <v>43947</v>
       </c>
@@ -1776,7 +1776,7 @@
         <v>81638</v>
       </c>
     </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:4">
       <c r="A99" s="1">
         <v>43948</v>
       </c>
@@ -1790,7 +1790,7 @@
         <v>83176</v>
       </c>
     </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:4">
       <c r="A100" s="1">
         <v>43949</v>
       </c>
@@ -1804,7 +1804,7 @@
         <v>84694</v>
       </c>
     </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:4">
       <c r="A101" s="1">
         <v>43950</v>
       </c>
@@ -1818,7 +1818,7 @@
         <v>86181</v>
       </c>
     </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:4">
       <c r="A102" s="1">
         <v>43951</v>
       </c>
@@ -1832,7 +1832,7 @@
         <v>87624</v>
       </c>
     </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:4">
       <c r="A103" s="1">
         <v>43952</v>
       </c>
@@ -1846,7 +1846,7 @@
         <v>88887</v>
       </c>
     </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:4">
       <c r="A104" s="1">
         <v>43953</v>
       </c>
@@ -1860,7 +1860,7 @@
         <v>90067</v>
       </c>
     </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:4">
       <c r="A105" s="1">
         <v>43954</v>
       </c>
@@ -1874,7 +1874,7 @@
         <v>91254</v>
       </c>
     </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:4">
       <c r="A106" s="1">
         <v>43955</v>
       </c>
@@ -1888,7 +1888,7 @@
         <v>92503</v>
       </c>
     </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:4">
       <c r="A107" s="1">
         <v>43956</v>
       </c>
@@ -1902,7 +1902,7 @@
         <v>93649</v>
       </c>
     </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:4">
       <c r="A108" s="1">
         <v>43957</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>94855</v>
       </c>
     </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:4">
       <c r="A109" s="1">
         <v>43958</v>
       </c>
@@ -1930,7 +1930,7 @@
         <v>96020</v>
       </c>
     </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:4">
       <c r="A110" s="1">
         <v>43959</v>
       </c>
@@ -1944,7 +1944,7 @@
         <v>96929</v>
       </c>
     </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:4">
       <c r="A111" s="1">
         <v>43960</v>
       </c>
@@ -1958,7 +1958,7 @@
         <v>97872</v>
       </c>
     </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:4">
       <c r="A112" s="1">
         <v>43961</v>
       </c>
@@ -1972,7 +1972,7 @@
         <v>98788</v>
       </c>
     </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:4">
       <c r="A113" s="1">
         <v>43962</v>
       </c>
@@ -1986,7 +1986,7 @@
         <v>99817</v>
       </c>
     </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:4">
       <c r="A114" s="1">
         <v>43963</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>100800</v>
       </c>
     </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:4">
       <c r="A115" s="1">
         <v>43964</v>
       </c>
@@ -2014,7 +2014,7 @@
         <v>101765</v>
       </c>
     </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:4">
       <c r="A116" s="1">
         <v>43965</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>102673</v>
       </c>
     </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:4">
       <c r="A117" s="1">
         <v>43966</v>
       </c>
@@ -2042,7 +2042,7 @@
         <v>103541</v>
       </c>
     </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:4">
       <c r="A118" s="1">
         <v>43967</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>104354</v>
       </c>
     </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:4">
       <c r="A119" s="1">
         <v>43968</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>105146</v>
       </c>
     </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:4">
       <c r="A120" s="1">
         <v>43969</v>
       </c>
@@ -2084,7 +2084,7 @@
         <v>105994</v>
       </c>
     </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:4">
       <c r="A121" s="1">
         <v>43970</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>106874</v>
       </c>
     </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:4">
       <c r="A122" s="1">
         <v>43971</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>107724</v>
       </c>
     </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:4">
       <c r="A123" s="1">
         <v>43972</v>
       </c>
@@ -2126,7 +2126,7 @@
         <v>108565</v>
       </c>
     </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:4">
       <c r="A124" s="1">
         <v>43973</v>
       </c>
@@ -2140,7 +2140,7 @@
         <v>109304</v>
       </c>
     </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:4">
       <c r="A125" s="1">
         <v>43974</v>
       </c>
@@ -2154,7 +2154,7 @@
         <v>109947</v>
       </c>
     </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:4">
       <c r="A126" s="1">
         <v>43975</v>
       </c>
@@ -2168,7 +2168,7 @@
         <v>110534</v>
       </c>
     </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:4">
       <c r="A127" s="1">
         <v>43976</v>
       </c>
@@ -2182,7 +2182,7 @@
         <v>111136</v>
       </c>
     </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:4">
       <c r="A128" s="1">
         <v>43977</v>
       </c>
@@ -2196,7 +2196,7 @@
         <v>111833</v>
       </c>
     </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:4">
       <c r="A129" s="1">
         <v>43978</v>
       </c>
@@ -2210,7 +2210,7 @@
         <v>112544</v>
       </c>
     </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:4">
       <c r="A130" s="1">
         <v>43979</v>
       </c>
@@ -2224,7 +2224,7 @@
         <v>113246</v>
       </c>
     </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:4">
       <c r="A131" s="1">
         <v>43980</v>
       </c>
@@ -2238,7 +2238,7 @@
         <v>113861</v>
       </c>
     </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:4">
       <c r="A132" s="1">
         <v>43981</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>114429</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:4">
       <c r="A133" s="1">
         <v>43982</v>
       </c>
@@ -2266,7 +2266,7 @@
         <v>114957</v>
       </c>
     </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:4">
       <c r="A134" s="1">
         <v>43983</v>
       </c>
@@ -2280,7 +2280,7 @@
         <v>115561</v>
       </c>
     </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:4">
       <c r="A135" s="1">
         <v>43984</v>
       </c>
@@ -2294,7 +2294,7 @@
         <v>116229</v>
       </c>
     </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:4">
       <c r="A136" s="1">
         <v>43985</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>116863</v>
       </c>
     </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:4">
       <c r="A137" s="1">
         <v>43986</v>
       </c>
@@ -2322,7 +2322,7 @@
         <v>117427</v>
       </c>
     </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:4">
       <c r="A138" s="1">
         <v>43987</v>
       </c>
@@ -2336,7 +2336,7 @@
         <v>117902</v>
       </c>
     </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:4">
       <c r="A139" s="1">
         <v>43988</v>
       </c>
@@ -2350,7 +2350,7 @@
         <v>118308</v>
       </c>
     </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:4">
       <c r="A140" s="1">
         <v>43989</v>
       </c>
@@ -2364,7 +2364,7 @@
         <v>118714</v>
       </c>
     </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:4">
       <c r="A141" s="1">
         <v>43990</v>
       </c>
@@ -2378,7 +2378,7 @@
         <v>119126</v>
       </c>
     </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:4">
       <c r="A142" s="1">
         <v>43991</v>
       </c>
@@ -2392,7 +2392,7 @@
         <v>119617</v>
       </c>
     </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:4">
       <c r="A143" s="1">
         <v>43992</v>
       </c>
@@ -2406,7 +2406,7 @@
         <v>120128</v>
       </c>
     </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:4">
       <c r="A144" s="1">
         <v>43993</v>
       </c>
@@ -2420,7 +2420,7 @@
         <v>120574</v>
       </c>
     </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:4">
       <c r="A145" s="1">
         <v>43994</v>
       </c>
@@ -2434,7 +2434,7 @@
         <v>120965</v>
       </c>
     </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:4">
       <c r="A146" s="1">
         <v>43995</v>
       </c>
@@ -2448,7 +2448,7 @@
         <v>121350</v>
       </c>
     </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:4">
       <c r="A147" s="1">
         <v>43996</v>
       </c>
@@ -2462,7 +2462,7 @@
         <v>121714</v>
       </c>
     </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:4">
       <c r="A148" s="1">
         <v>43997</v>
       </c>
@@ -2476,7 +2476,7 @@
         <v>122154</v>
       </c>
     </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:4">
       <c r="A149" s="1">
         <v>43998</v>
       </c>
@@ -2490,7 +2490,7 @@
         <v>122609</v>
       </c>
     </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:4">
       <c r="A150" s="1">
         <v>43999</v>
       </c>
@@ -2504,7 +2504,7 @@
         <v>123041</v>
       </c>
     </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:4">
       <c r="A151" s="1">
         <v>44000</v>
       </c>
@@ -2518,7 +2518,7 @@
         <v>123443</v>
       </c>
     </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:4">
       <c r="A152" s="1">
         <v>44001</v>
       </c>
@@ -2532,7 +2532,7 @@
         <v>123779</v>
       </c>
     </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:4">
       <c r="A153" s="1">
         <v>44002</v>
       </c>
@@ -2546,7 +2546,7 @@
         <v>124036</v>
       </c>
     </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:4">
       <c r="A154" s="1">
         <v>44003</v>
       </c>
@@ -2560,7 +2560,7 @@
         <v>124324</v>
       </c>
     </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:4">
       <c r="A155" s="1">
         <v>44004</v>
       </c>
@@ -2574,7 +2574,7 @@
         <v>124718</v>
       </c>
     </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:4">
       <c r="A156" s="1">
         <v>44005</v>
       </c>
@@ -2588,7 +2588,7 @@
         <v>125079</v>
       </c>
     </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:4">
       <c r="A157" s="1">
         <v>44006</v>
       </c>
@@ -2602,7 +2602,7 @@
         <v>125446</v>
       </c>
     </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:4">
       <c r="A158" s="1">
         <v>44007</v>
       </c>
@@ -2616,7 +2616,7 @@
         <v>125770</v>
       </c>
     </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:4">
       <c r="A159" s="1">
         <v>44008</v>
       </c>
@@ -2630,7 +2630,7 @@
         <v>126108</v>
       </c>
     </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:4">
       <c r="A160" s="1">
         <v>44009</v>
       </c>
@@ -2644,7 +2644,7 @@
         <v>126394</v>
       </c>
     </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:4">
       <c r="A161" s="1">
         <v>44010</v>
       </c>
@@ -2658,7 +2658,7 @@
         <v>126602</v>
       </c>
     </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:4">
       <c r="A162" s="1">
         <v>44011</v>
       </c>
@@ -2672,7 +2672,7 @@
         <v>126821</v>
       </c>
     </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:4">
       <c r="A163" s="1">
         <v>44012</v>
       </c>
@@ -2686,7 +2686,7 @@
         <v>127116</v>
       </c>
     </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:4">
       <c r="A164" s="1">
         <v>44013</v>
       </c>
@@ -2700,7 +2700,7 @@
         <v>127387</v>
       </c>
     </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:4">
       <c r="A165" s="1">
         <v>44014</v>
       </c>
@@ -2714,7 +2714,7 @@
         <v>127603</v>
       </c>
     </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:4">
       <c r="A166" s="1">
         <v>44015</v>
       </c>
@@ -2728,7 +2728,7 @@
         <v>127816</v>
       </c>
     </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:4">
       <c r="A167" s="1">
         <v>44016</v>
       </c>
@@ -2742,7 +2742,7 @@
         <v>128018</v>
       </c>
     </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:4">
       <c r="A168" s="1">
         <v>44017</v>
       </c>
@@ -2756,7 +2756,7 @@
         <v>128213</v>
       </c>
     </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:4">
       <c r="A169" s="1">
         <v>44018</v>
       </c>
@@ -2770,7 +2770,7 @@
         <v>128417</v>
       </c>
     </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:4">
       <c r="A170" s="1">
         <v>44019</v>
       </c>
@@ -2784,7 +2784,7 @@
         <v>128631</v>
       </c>
     </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:4">
       <c r="A171" s="1">
         <v>44020</v>
       </c>
@@ -2798,7 +2798,7 @@
         <v>128839</v>
       </c>
     </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:4">
       <c r="A172" s="1">
         <v>44021</v>
       </c>
@@ -2812,7 +2812,7 @@
         <v>129051</v>
       </c>
     </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:4">
       <c r="A173" s="1">
         <v>44022</v>
       </c>
@@ -2826,7 +2826,7 @@
         <v>129226</v>
       </c>
     </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:4">
       <c r="A174" s="1">
         <v>44023</v>
       </c>
@@ -2840,7 +2840,7 @@
         <v>129402</v>
       </c>
     </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:4">
       <c r="A175" s="1">
         <v>44024</v>
       </c>
@@ -2854,7 +2854,7 @@
         <v>129516</v>
       </c>
     </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:4">
       <c r="A176" s="1">
         <v>44025</v>
       </c>
@@ -2868,7 +2868,7 @@
         <v>129705</v>
       </c>
     </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:4">
       <c r="A177" s="1">
         <v>44026</v>
       </c>
@@ -2882,7 +2882,7 @@
         <v>129890</v>
       </c>
     </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:4">
       <c r="A178" s="1">
         <v>44027</v>
       </c>
@@ -2896,7 +2896,7 @@
         <v>130056</v>
       </c>
     </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:4">
       <c r="A179" s="1">
         <v>44028</v>
       </c>
@@ -2910,7 +2910,7 @@
         <v>130222</v>
       </c>
     </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:4">
       <c r="A180" s="1">
         <v>44029</v>
       </c>
@@ -2924,7 +2924,7 @@
         <v>130365</v>
       </c>
     </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:4">
       <c r="A181" s="1">
         <v>44030</v>
       </c>
@@ -2938,7 +2938,7 @@
         <v>130470</v>
       </c>
     </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:4">
       <c r="A182" s="1">
         <v>44031</v>
       </c>
@@ -2952,7 +2952,7 @@
         <v>130596</v>
       </c>
     </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:4">
       <c r="A183" s="1">
         <v>44032</v>
       </c>
@@ -2966,7 +2966,7 @@
         <v>130726</v>
       </c>
     </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:4">
       <c r="A184" s="1">
         <v>44033</v>
       </c>
@@ -2980,7 +2980,7 @@
         <v>130851</v>
       </c>
     </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:4">
       <c r="A185" s="1">
         <v>44034</v>
       </c>
@@ -2994,7 +2994,7 @@
         <v>131008</v>
       </c>
     </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:4">
       <c r="A186" s="1">
         <v>44035</v>
       </c>
@@ -3008,7 +3008,7 @@
         <v>131207</v>
       </c>
     </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:4">
       <c r="A187" s="1">
         <v>44036</v>
       </c>
@@ -3022,7 +3022,7 @@
         <v>131364</v>
       </c>
     </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:4">
       <c r="A188" s="1">
         <v>44037</v>
       </c>
@@ -3036,7 +3036,7 @@
         <v>131484</v>
       </c>
     </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:4">
       <c r="A189" s="1">
         <v>44038</v>
       </c>
@@ -3050,7 +3050,7 @@
         <v>131593</v>
       </c>
     </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:4">
       <c r="A190" s="1">
         <v>44039</v>
       </c>
@@ -3064,7 +3064,7 @@
         <v>131721</v>
       </c>
     </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:4">
       <c r="A191" s="1">
         <v>44040</v>
       </c>
@@ -3078,7 +3078,7 @@
         <v>131840</v>
       </c>
     </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:4">
       <c r="A192" s="1">
         <v>44041</v>
       </c>
@@ -3092,7 +3092,7 @@
         <v>131972</v>
       </c>
     </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:4">
       <c r="A193" s="1">
         <v>44042</v>
       </c>
@@ -3106,7 +3106,7 @@
         <v>132102</v>
       </c>
     </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:4">
       <c r="A194" s="1">
         <v>44043</v>
       </c>
@@ -3120,7 +3120,7 @@
         <v>132215</v>
       </c>
     </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:4">
       <c r="A195" s="1">
         <v>44044</v>
       </c>
@@ -3134,7 +3134,7 @@
         <v>132342</v>
       </c>
     </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:4">
       <c r="A196" s="1">
         <v>44045</v>
       </c>
@@ -3148,7 +3148,7 @@
         <v>132435</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:4">
       <c r="A197" s="1">
         <v>44046</v>
       </c>
@@ -3162,7 +3162,7 @@
         <v>132545</v>
       </c>
     </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:4">
       <c r="A198" s="1">
         <v>44047</v>
       </c>
@@ -3176,7 +3176,7 @@
         <v>132671</v>
       </c>
     </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:4">
       <c r="A199" s="1">
         <v>44048</v>
       </c>
@@ -3190,7 +3190,7 @@
         <v>132809</v>
       </c>
     </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:4">
       <c r="A200" s="1">
         <v>44049</v>
       </c>
@@ -3204,7 +3204,7 @@
         <v>132909</v>
       </c>
     </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:4">
       <c r="A201" s="1">
         <v>44050</v>
       </c>
@@ -3218,7 +3218,7 @@
         <v>133026</v>
       </c>
     </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:4">
       <c r="A202" s="1">
         <v>44051</v>
       </c>
@@ -3232,7 +3232,7 @@
         <v>133167</v>
       </c>
     </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:4">
       <c r="A203" s="1">
         <v>44052</v>
       </c>
@@ -3246,7 +3246,7 @@
         <v>133273</v>
       </c>
     </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:4">
       <c r="A204" s="1">
         <v>44053</v>
       </c>
@@ -3260,7 +3260,7 @@
         <v>133357</v>
       </c>
     </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:4">
       <c r="A205" s="1">
         <v>44054</v>
       </c>
@@ -3274,7 +3274,7 @@
         <v>133470</v>
       </c>
     </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:4">
       <c r="A206" s="1">
         <v>44055</v>
       </c>
@@ -3288,7 +3288,7 @@
         <v>133571</v>
       </c>
     </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:4">
       <c r="A207" s="1">
         <v>44056</v>
       </c>
@@ -3302,7 +3302,7 @@
         <v>133700</v>
       </c>
     </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:4">
       <c r="A208" s="1">
         <v>44057</v>
       </c>
@@ -3316,7 +3316,7 @@
         <v>133800</v>
       </c>
     </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:4">
       <c r="A209" s="1">
         <v>44058</v>
       </c>
@@ -3330,7 +3330,7 @@
         <v>133898</v>
       </c>
     </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:4">
       <c r="A210" s="1">
         <v>44059</v>
       </c>
@@ -3344,7 +3344,7 @@
         <v>133978</v>
       </c>
     </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:4">
       <c r="A211" s="1">
         <v>44060</v>
       </c>
@@ -3358,7 +3358,7 @@
         <v>134073</v>
       </c>
     </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:4">
       <c r="A212" s="1">
         <v>44061</v>
       </c>
@@ -3372,7 +3372,7 @@
         <v>134202</v>
       </c>
     </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:4">
       <c r="A213" s="1">
         <v>44062</v>
       </c>
@@ -3386,7 +3386,7 @@
         <v>134315</v>
       </c>
     </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:4">
       <c r="A214" s="1">
         <v>44063</v>
       </c>
@@ -3400,7 +3400,7 @@
         <v>134412</v>
       </c>
     </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:4">
       <c r="A215" s="1">
         <v>44064</v>
       </c>
@@ -3414,7 +3414,7 @@
         <v>134520</v>
       </c>
     </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:4">
       <c r="A216" s="1">
         <v>44065</v>
       </c>
@@ -3428,7 +3428,7 @@
         <v>134591</v>
       </c>
     </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:4">
       <c r="A217" s="1">
         <v>44066</v>
       </c>
@@ -3442,7 +3442,7 @@
         <v>134665</v>
       </c>
     </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:4">
       <c r="A218" s="1">
         <v>44067</v>
       </c>
@@ -3456,7 +3456,7 @@
         <v>134755</v>
       </c>
     </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:4">
       <c r="A219" s="1">
         <v>44068</v>
       </c>
@@ -3470,7 +3470,7 @@
         <v>134875</v>
       </c>
     </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:4">
       <c r="A220" s="1">
         <v>44069</v>
       </c>
@@ -3484,7 +3484,7 @@
         <v>135006</v>
       </c>
     </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:4">
       <c r="A221" s="1">
         <v>44070</v>
       </c>
@@ -3498,7 +3498,7 @@
         <v>135156</v>
       </c>
     </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:4">
       <c r="A222" s="1">
         <v>44071</v>
       </c>
@@ -3512,7 +3512,7 @@
         <v>135293</v>
       </c>
     </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:4">
       <c r="A223" s="1">
         <v>44072</v>
       </c>
@@ -3526,7 +3526,7 @@
         <v>135402</v>
       </c>
     </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:4">
       <c r="A224" s="1">
         <v>44073</v>
       </c>
@@ -3540,7 +3540,7 @@
         <v>135478</v>
       </c>
     </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:4">
       <c r="A225" s="1">
         <v>44074</v>
       </c>
@@ -3554,7 +3554,7 @@
         <v>135569</v>
       </c>
     </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:4">
       <c r="A226" s="1">
         <v>44075</v>
       </c>
@@ -3568,7 +3568,7 @@
         <v>135703</v>
       </c>
     </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:4">
       <c r="A227" s="1">
         <v>44076</v>
       </c>
@@ -3582,7 +3582,7 @@
         <v>135846</v>
       </c>
     </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:4">
       <c r="A228" s="1">
         <v>44077</v>
       </c>
@@ -3596,7 +3596,7 @@
         <v>135991</v>
       </c>
     </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:4">
       <c r="A229" s="1">
         <v>44078</v>
       </c>
@@ -3610,7 +3610,7 @@
         <v>136144</v>
       </c>
     </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:4">
       <c r="A230" s="1">
         <v>44079</v>
       </c>
@@ -3624,7 +3624,7 @@
         <v>136274</v>
       </c>
     </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:4">
       <c r="A231" s="1">
         <v>44080</v>
       </c>
@@ -3638,7 +3638,7 @@
         <v>136412</v>
       </c>
     </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:4">
       <c r="A232" s="1">
         <v>44081</v>
       </c>
@@ -3652,7 +3652,7 @@
         <v>136554</v>
       </c>
     </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:4">
       <c r="A233" s="1">
         <v>44082</v>
       </c>
@@ -3666,7 +3666,7 @@
         <v>136735</v>
       </c>
     </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:4">
       <c r="A234" s="1">
         <v>44083</v>
       </c>
@@ -3680,7 +3680,7 @@
         <v>136935</v>
       </c>
     </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:4">
       <c r="A235" s="1">
         <v>44084</v>
       </c>
@@ -3694,7 +3694,7 @@
         <v>137152</v>
       </c>
     </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:4">
       <c r="A236" s="1">
         <v>44085</v>
       </c>
@@ -3708,7 +3708,7 @@
         <v>137381</v>
       </c>
     </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:4">
       <c r="A237" s="1">
         <v>44086</v>
       </c>
@@ -3722,7 +3722,7 @@
         <v>137596</v>
       </c>
     </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:4">
       <c r="A238" s="1">
         <v>44087</v>
       </c>
@@ -3736,7 +3736,7 @@
         <v>137820</v>
       </c>
     </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:4">
       <c r="A239" s="1">
         <v>44088</v>
       </c>
@@ -3750,7 +3750,7 @@
         <v>138076</v>
       </c>
     </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:4">
       <c r="A240" s="1">
         <v>44089</v>
       </c>
@@ -3764,7 +3764,7 @@
         <v>138346</v>
       </c>
     </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:4">
       <c r="A241" s="1">
         <v>44090</v>
       </c>
@@ -3778,7 +3778,7 @@
         <v>138630</v>
       </c>
     </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:4">
       <c r="A242" s="1">
         <v>44091</v>
       </c>
@@ -3792,7 +3792,7 @@
         <v>138891</v>
       </c>
     </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:4">
       <c r="A243" s="1">
         <v>44092</v>
       </c>
@@ -3806,7 +3806,7 @@
         <v>139150</v>
       </c>
     </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:4">
       <c r="A244" s="1">
         <v>44093</v>
       </c>
@@ -3820,7 +3820,7 @@
         <v>139409</v>
       </c>
     </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:4">
       <c r="A245" s="1">
         <v>44094</v>
       </c>
@@ -3834,7 +3834,7 @@
         <v>139697</v>
       </c>
     </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:4">
       <c r="A246" s="1">
         <v>44095</v>
       </c>
@@ -3848,7 +3848,7 @@
         <v>140065</v>
       </c>
     </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:4">
       <c r="A247" s="1">
         <v>44096</v>
       </c>
@@ -3862,7 +3862,7 @@
         <v>140414</v>
       </c>
     </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:4">
       <c r="A248" s="1">
         <v>44097</v>
       </c>
@@ -3876,7 +3876,7 @@
         <v>140833</v>
       </c>
     </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:4">
       <c r="A249" s="1">
         <v>44098</v>
       </c>
@@ -3890,7 +3890,7 @@
         <v>141253</v>
       </c>
     </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:4">
       <c r="A250" s="1">
         <v>44099</v>
       </c>
@@ -3904,7 +3904,7 @@
         <v>141634</v>
       </c>
     </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:4">
       <c r="A251" s="1">
         <v>44100</v>
       </c>
@@ -3918,7 +3918,7 @@
         <v>141984</v>
       </c>
     </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:4">
       <c r="A252" s="1">
         <v>44101</v>
       </c>
@@ -3932,7 +3932,7 @@
         <v>142324</v>
       </c>
     </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:4">
       <c r="A253" s="1">
         <v>44102</v>
       </c>
@@ -3946,7 +3946,7 @@
         <v>142766</v>
       </c>
     </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:4">
       <c r="A254" s="1">
         <v>44103</v>
       </c>
@@ -3960,7 +3960,7 @@
         <v>143206</v>
       </c>
     </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:4">
       <c r="A255" s="1">
         <v>44104</v>
       </c>
@@ -3974,7 +3974,7 @@
         <v>143655</v>
       </c>
     </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:4">
       <c r="A256" s="1">
         <v>44105</v>
       </c>
@@ -3988,7 +3988,7 @@
         <v>144176</v>
       </c>
     </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:4">
       <c r="A257" s="1">
         <v>44106</v>
       </c>
@@ -4002,7 +4002,7 @@
         <v>144700</v>
       </c>
     </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:4">
       <c r="A258" s="1">
         <v>44107</v>
       </c>
@@ -4016,7 +4016,7 @@
         <v>145232</v>
       </c>
     </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:4">
       <c r="A259" s="1">
         <v>44108</v>
       </c>
@@ -4030,7 +4030,7 @@
         <v>145859</v>
       </c>
     </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:4">
       <c r="A260" s="1">
         <v>44109</v>
       </c>
@@ -4044,7 +4044,7 @@
         <v>146484</v>
       </c>
     </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:4">
       <c r="A261" s="1">
         <v>44110</v>
       </c>
@@ -4058,7 +4058,7 @@
         <v>147205</v>
       </c>
     </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:4">
       <c r="A262" s="1">
         <v>44111</v>
       </c>
@@ -4072,7 +4072,7 @@
         <v>147886</v>
       </c>
     </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:4">
       <c r="A263" s="1">
         <v>44112</v>
       </c>
@@ -4086,7 +4086,7 @@
         <v>148593</v>
       </c>
     </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:4">
       <c r="A264" s="1">
         <v>44113</v>
       </c>
@@ -4100,7 +4100,7 @@
         <v>149295</v>
       </c>
     </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:4">
       <c r="A265" s="1">
         <v>44114</v>
       </c>
@@ -4114,7 +4114,7 @@
         <v>150012</v>
       </c>
     </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:4">
       <c r="A266" s="1">
         <v>44115</v>
       </c>
@@ -4128,7 +4128,7 @@
         <v>150833</v>
       </c>
     </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:4">
       <c r="A267" s="1">
         <v>44116</v>
       </c>
@@ -4142,7 +4142,7 @@
         <v>151713</v>
       </c>
     </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:4">
       <c r="A268" s="1">
         <v>44117</v>
       </c>
@@ -4156,7 +4156,7 @@
         <v>152733</v>
       </c>
     </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:4">
       <c r="A269" s="1">
         <v>44118</v>
       </c>
@@ -4170,7 +4170,7 @@
         <v>153710</v>
       </c>
     </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:4">
       <c r="A270" s="1">
         <v>44119</v>
       </c>
@@ -4184,7 +4184,7 @@
         <v>154752</v>
       </c>
     </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:4">
       <c r="A271" s="1">
         <v>44120</v>
       </c>
@@ -4198,7 +4198,7 @@
         <v>155660</v>
       </c>
     </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:4">
       <c r="A272" s="1">
         <v>44121</v>
       </c>
@@ -4212,7 +4212,7 @@
         <v>156684</v>
       </c>
     </row>
-    <row r="273" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:6">
       <c r="A273" s="1">
         <v>44122</v>
       </c>
@@ -4226,7 +4226,7 @@
         <v>157769</v>
       </c>
     </row>
-    <row r="274" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:6">
       <c r="A274" s="1">
         <v>44123</v>
       </c>
@@ -4240,7 +4240,7 @@
         <v>158858</v>
       </c>
     </row>
-    <row r="275" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:6">
       <c r="A275" s="1">
         <v>44124</v>
       </c>
@@ -4254,7 +4254,7 @@
         <v>160039</v>
       </c>
     </row>
-    <row r="276" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:6">
       <c r="A276" s="1">
         <v>44125</v>
       </c>
@@ -4268,7 +4268,7 @@
         <v>161297</v>
       </c>
     </row>
-    <row r="277" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:6">
       <c r="A277" s="1">
         <v>44126</v>
       </c>
@@ -4282,7 +4282,7 @@
         <v>162570</v>
       </c>
     </row>
-    <row r="278" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:6">
       <c r="A278" s="1">
         <v>44127</v>
       </c>
@@ -4296,7 +4296,7 @@
         <v>163857</v>
       </c>
     </row>
-    <row r="279" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:6">
       <c r="A279" s="1">
         <v>44128</v>
       </c>
@@ -4310,7 +4310,7 @@
         <v>165111</v>
       </c>
     </row>
-    <row r="280" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:6">
       <c r="A280" s="1">
         <v>44129</v>
       </c>
@@ -4324,7 +4324,7 @@
         <v>166528</v>
       </c>
     </row>
-    <row r="281" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:6">
       <c r="A281" s="1">
         <v>44130</v>
       </c>
@@ -4338,7 +4338,7 @@
         <v>168057</v>
       </c>
     </row>
-    <row r="282" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:6">
       <c r="A282" s="1">
         <v>44131</v>
       </c>
@@ -4352,7 +4352,7 @@
         <v>169543</v>
       </c>
     </row>
-    <row r="283" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:6">
       <c r="A283" s="1">
         <v>44132</v>
       </c>
@@ -4366,7 +4366,7 @@
         <v>171025</v>
       </c>
     </row>
-    <row r="284" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:6">
       <c r="A284" s="1">
         <v>44133</v>
       </c>
@@ -4380,7 +4380,7 @@
         <v>172607</v>
       </c>
     </row>
-    <row r="285" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:6">
       <c r="A285" s="1">
         <v>44134</v>
       </c>
@@ -4394,7 +4394,7 @@
         <v>173979</v>
       </c>
     </row>
-    <row r="286" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:6">
       <c r="A286" s="1">
         <v>44135</v>
       </c>
@@ -4408,7 +4408,7 @@
         <v>175436</v>
       </c>
     </row>
-    <row r="287" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:6">
       <c r="A287" s="1">
         <v>44136</v>
       </c>
@@ -4424,7 +4424,7 @@
       <c r="E287" s="2"/>
       <c r="F287" s="2"/>
     </row>
-    <row r="288" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:6">
       <c r="A288" s="1">
         <v>44137</v>
       </c>
@@ -4440,7 +4440,7 @@
       <c r="E288" s="2"/>
       <c r="F288" s="2"/>
     </row>
-    <row r="289" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:6">
       <c r="A289" s="1">
         <v>44138</v>
       </c>
@@ -4456,7 +4456,7 @@
       <c r="E289" s="2"/>
       <c r="F289" s="2"/>
     </row>
-    <row r="290" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:6">
       <c r="A290" s="1">
         <v>44139</v>
       </c>
@@ -4472,7 +4472,7 @@
       <c r="E290" s="2"/>
       <c r="F290" s="2"/>
     </row>
-    <row r="291" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:6">
       <c r="A291" s="1">
         <v>44140</v>
       </c>
@@ -4488,7 +4488,7 @@
       <c r="E291" s="2"/>
       <c r="F291" s="2"/>
     </row>
-    <row r="292" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:6">
       <c r="A292" s="1">
         <v>44141</v>
       </c>
@@ -4504,7 +4504,7 @@
       <c r="E292" s="2"/>
       <c r="F292" s="2"/>
     </row>
-    <row r="293" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:6">
       <c r="A293" s="1">
         <v>44142</v>
       </c>
@@ -4520,7 +4520,7 @@
       <c r="E293" s="2"/>
       <c r="F293" s="2"/>
     </row>
-    <row r="294" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:6">
       <c r="A294" s="1">
         <v>44143</v>
       </c>
@@ -4536,7 +4536,7 @@
       <c r="E294" s="2"/>
       <c r="F294" s="2"/>
     </row>
-    <row r="295" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:6">
       <c r="A295" s="1">
         <v>44144</v>
       </c>
@@ -4552,7 +4552,7 @@
       <c r="E295" s="2"/>
       <c r="F295" s="2"/>
     </row>
-    <row r="296" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:6">
       <c r="A296" s="1">
         <v>44145</v>
       </c>
@@ -4568,7 +4568,7 @@
       <c r="E296" s="2"/>
       <c r="F296" s="2"/>
     </row>
-    <row r="297" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:6">
       <c r="A297" s="1">
         <v>44146</v>
       </c>
@@ -4584,7 +4584,7 @@
       <c r="E297" s="2"/>
       <c r="F297" s="2"/>
     </row>
-    <row r="298" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:6">
       <c r="A298" s="1">
         <v>44147</v>
       </c>
@@ -4600,7 +4600,7 @@
       <c r="E298" s="2"/>
       <c r="F298" s="2"/>
     </row>
-    <row r="299" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:6">
       <c r="A299" s="1">
         <v>44148</v>
       </c>
@@ -4616,7 +4616,7 @@
       <c r="E299" s="2"/>
       <c r="F299" s="2"/>
     </row>
-    <row r="300" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:6">
       <c r="A300" s="1">
         <v>44149</v>
       </c>
@@ -4632,7 +4632,7 @@
       <c r="E300" s="2"/>
       <c r="F300" s="2"/>
     </row>
-    <row r="301" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:6">
       <c r="A301" s="1">
         <v>44150</v>
       </c>
@@ -4648,7 +4648,7 @@
       <c r="E301" s="2"/>
       <c r="F301" s="2"/>
     </row>
-    <row r="302" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:6">
       <c r="A302" s="1">
         <v>44151</v>
       </c>
@@ -4664,7 +4664,7 @@
       <c r="E302" s="2"/>
       <c r="F302" s="2"/>
     </row>
-    <row r="303" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:6">
       <c r="A303" s="1">
         <v>44152</v>
       </c>
@@ -4680,7 +4680,7 @@
       <c r="E303" s="2"/>
       <c r="F303" s="2"/>
     </row>
-    <row r="304" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:6">
       <c r="A304" s="1">
         <v>44153</v>
       </c>
@@ -4696,7 +4696,7 @@
       <c r="E304" s="2"/>
       <c r="F304" s="2"/>
     </row>
-    <row r="305" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:6">
       <c r="A305" s="1">
         <v>44154</v>
       </c>
@@ -4712,7 +4712,7 @@
       <c r="E305" s="2"/>
       <c r="F305" s="2"/>
     </row>
-    <row r="306" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:6">
       <c r="A306" s="1">
         <v>44155</v>
       </c>
@@ -4728,7 +4728,7 @@
       <c r="E306" s="2"/>
       <c r="F306" s="2"/>
     </row>
-    <row r="307" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:6">
       <c r="A307" s="1">
         <v>44156</v>
       </c>
@@ -4744,7 +4744,7 @@
       <c r="E307" s="2"/>
       <c r="F307" s="2"/>
     </row>
-    <row r="308" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:6">
       <c r="A308" s="1">
         <v>44157</v>
       </c>
@@ -4760,7 +4760,7 @@
       <c r="E308" s="2"/>
       <c r="F308" s="2"/>
     </row>
-    <row r="309" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:6">
       <c r="A309" s="1">
         <v>44158</v>
       </c>
@@ -4776,7 +4776,7 @@
       <c r="E309" s="2"/>
       <c r="F309" s="2"/>
     </row>
-    <row r="310" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:6">
       <c r="A310" s="1">
         <v>44159</v>
       </c>
@@ -4792,7 +4792,7 @@
       <c r="E310" s="2"/>
       <c r="F310" s="2"/>
     </row>
-    <row r="311" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:6">
       <c r="A311" s="1">
         <v>44160</v>
       </c>
@@ -4808,7 +4808,7 @@
       <c r="E311" s="2"/>
       <c r="F311" s="2"/>
     </row>
-    <row r="312" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:6">
       <c r="A312" s="1">
         <v>44161</v>
       </c>
@@ -4824,7 +4824,7 @@
       <c r="E312" s="2"/>
       <c r="F312" s="2"/>
     </row>
-    <row r="313" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:6">
       <c r="A313" s="1">
         <v>44162</v>
       </c>
@@ -4840,7 +4840,7 @@
       <c r="E313" s="2"/>
       <c r="F313" s="2"/>
     </row>
-    <row r="314" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:6">
       <c r="A314" s="1">
         <v>44163</v>
       </c>
@@ -4856,7 +4856,7 @@
       <c r="E314" s="2"/>
       <c r="F314" s="2"/>
     </row>
-    <row r="315" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:6">
       <c r="A315" s="1">
         <v>44164</v>
       </c>
@@ -4872,7 +4872,7 @@
       <c r="E315" s="2"/>
       <c r="F315" s="2"/>
     </row>
-    <row r="316" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:6">
       <c r="A316" s="1">
         <v>44165</v>
       </c>
@@ -4888,7 +4888,7 @@
       <c r="E316" s="2"/>
       <c r="F316" s="2"/>
     </row>
-    <row r="317" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:6">
       <c r="A317" s="1">
         <v>44166</v>
       </c>
@@ -4904,7 +4904,7 @@
       <c r="E317" s="2"/>
       <c r="F317" s="2"/>
     </row>
-    <row r="318" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:6">
       <c r="A318" s="1">
         <v>44167</v>
       </c>
@@ -4920,7 +4920,7 @@
       <c r="E318" s="2"/>
       <c r="F318" s="2"/>
     </row>
-    <row r="319" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:6">
       <c r="A319" s="1">
         <v>44168</v>
       </c>
@@ -4936,7 +4936,7 @@
       <c r="E319" s="2"/>
       <c r="F319" s="2"/>
     </row>
-    <row r="320" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:6">
       <c r="A320" s="1">
         <v>44169</v>
       </c>
@@ -4952,7 +4952,7 @@
       <c r="E320" s="2"/>
       <c r="F320" s="2"/>
     </row>
-    <row r="321" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:6">
       <c r="A321" s="1">
         <v>44170</v>
       </c>
@@ -4968,7 +4968,7 @@
       <c r="E321" s="2"/>
       <c r="F321" s="2"/>
     </row>
-    <row r="322" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:6">
       <c r="A322" s="1">
         <v>44171</v>
       </c>
@@ -4984,7 +4984,7 @@
       <c r="E322" s="2"/>
       <c r="F322" s="2"/>
     </row>
-    <row r="323" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:6">
       <c r="A323" s="1">
         <v>44172</v>
       </c>
@@ -5000,7 +5000,7 @@
       <c r="E323" s="2"/>
       <c r="F323" s="2"/>
     </row>
-    <row r="324" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:6">
       <c r="A324" s="1">
         <v>44173</v>
       </c>
@@ -5016,7 +5016,7 @@
       <c r="E324" s="2"/>
       <c r="F324" s="2"/>
     </row>
-    <row r="325" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:6">
       <c r="A325" s="1">
         <v>44174</v>
       </c>
@@ -5032,7 +5032,7 @@
       <c r="E325" s="2"/>
       <c r="F325" s="2"/>
     </row>
-    <row r="326" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:6">
       <c r="A326" s="1">
         <v>44175</v>
       </c>
@@ -5048,7 +5048,7 @@
       <c r="E326" s="2"/>
       <c r="F326" s="2"/>
     </row>
-    <row r="327" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:6">
       <c r="A327" s="1">
         <v>44176</v>
       </c>
@@ -5064,7 +5064,7 @@
       <c r="E327" s="2"/>
       <c r="F327" s="2"/>
     </row>
-    <row r="328" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:6">
       <c r="A328" s="1">
         <v>44177</v>
       </c>
@@ -5080,7 +5080,7 @@
       <c r="E328" s="2"/>
       <c r="F328" s="2"/>
     </row>
-    <row r="329" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:6">
       <c r="A329" s="1">
         <v>44178</v>
       </c>
@@ -5096,7 +5096,7 @@
       <c r="E329" s="2"/>
       <c r="F329" s="2"/>
     </row>
-    <row r="330" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:6">
       <c r="A330" s="1">
         <v>44179</v>
       </c>
@@ -5112,7 +5112,7 @@
       <c r="E330" s="2"/>
       <c r="F330" s="2"/>
     </row>
-    <row r="331" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:6">
       <c r="A331" s="1">
         <v>44180</v>
       </c>
@@ -5128,7 +5128,7 @@
       <c r="E331" s="2"/>
       <c r="F331" s="2"/>
     </row>
-    <row r="332" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:6">
       <c r="A332" s="1">
         <v>44181</v>
       </c>
@@ -5144,7 +5144,7 @@
       <c r="E332" s="2"/>
       <c r="F332" s="2"/>
     </row>
-    <row r="333" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:6">
       <c r="A333" s="1">
         <v>44182</v>
       </c>
@@ -5160,7 +5160,7 @@
       <c r="E333" s="2"/>
       <c r="F333" s="2"/>
     </row>
-    <row r="334" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:6">
       <c r="A334" s="1">
         <v>44183</v>
       </c>
@@ -5176,7 +5176,7 @@
       <c r="E334" s="2"/>
       <c r="F334" s="2"/>
     </row>
-    <row r="335" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:6">
       <c r="A335" s="1">
         <v>44184</v>
       </c>
@@ -5192,7 +5192,7 @@
       <c r="E335" s="2"/>
       <c r="F335" s="2"/>
     </row>
-    <row r="336" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:6">
       <c r="A336" s="1">
         <v>44185</v>
       </c>
@@ -5208,7 +5208,7 @@
       <c r="E336" s="2"/>
       <c r="F336" s="2"/>
     </row>
-    <row r="337" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:6">
       <c r="A337" s="1">
         <v>44186</v>
       </c>
@@ -5224,7 +5224,7 @@
       <c r="E337" s="2"/>
       <c r="F337" s="2"/>
     </row>
-    <row r="338" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:6">
       <c r="A338" s="1">
         <v>44187</v>
       </c>
@@ -5240,7 +5240,7 @@
       <c r="E338" s="2"/>
       <c r="F338" s="2"/>
     </row>
-    <row r="339" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:6">
       <c r="A339" s="1">
         <v>44188</v>
       </c>
@@ -5253,7 +5253,7 @@
       <c r="E339" s="2"/>
       <c r="F339" s="2"/>
     </row>
-    <row r="340" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:6">
       <c r="A340" s="1">
         <v>44189</v>
       </c>
@@ -5266,7 +5266,7 @@
       <c r="E340" s="2"/>
       <c r="F340" s="2"/>
     </row>
-    <row r="341" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:6">
       <c r="A341" s="1">
         <v>44190</v>
       </c>
@@ -5279,7 +5279,7 @@
       <c r="E341" s="2"/>
       <c r="F341" s="2"/>
     </row>
-    <row r="342" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:6">
       <c r="A342" s="1">
         <v>44191</v>
       </c>
@@ -5292,7 +5292,7 @@
       <c r="E342" s="2"/>
       <c r="F342" s="2"/>
     </row>
-    <row r="343" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:6">
       <c r="A343" s="1">
         <v>44192</v>
       </c>
@@ -5305,7 +5305,7 @@
       <c r="E343" s="2"/>
       <c r="F343" s="2"/>
     </row>
-    <row r="344" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:6">
       <c r="A344" s="1">
         <v>44193</v>
       </c>
@@ -5318,7 +5318,7 @@
       <c r="E344" s="2"/>
       <c r="F344" s="2"/>
     </row>
-    <row r="345" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:6">
       <c r="A345" s="1">
         <v>44194</v>
       </c>
@@ -5331,7 +5331,7 @@
       <c r="E345" s="2"/>
       <c r="F345" s="2"/>
     </row>
-    <row r="346" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:6">
       <c r="A346" s="1">
         <v>44195</v>
       </c>
@@ -5344,7 +5344,7 @@
       <c r="E346" s="2"/>
       <c r="F346" s="2"/>
     </row>
-    <row r="347" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:6">
       <c r="A347" s="1">
         <v>44196</v>
       </c>
@@ -5357,7 +5357,7 @@
       <c r="E347" s="2"/>
       <c r="F347" s="2"/>
     </row>
-    <row r="348" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:6">
       <c r="A348" s="1">
         <v>44197</v>
       </c>
@@ -5370,7 +5370,7 @@
       <c r="E348" s="2"/>
       <c r="F348" s="2"/>
     </row>
-    <row r="349" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:6">
       <c r="A349" s="1">
         <v>44198</v>
       </c>
@@ -5383,12 +5383,12 @@
       <c r="E349" s="2"/>
       <c r="F349" s="2"/>
     </row>
-    <row r="350" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:6">
       <c r="A350" s="1">
         <v>44199</v>
       </c>
       <c r="B350" s="2">
-        <v>265779</v>
+        <v>2657790</v>
       </c>
       <c r="C350" s="2">
         <v>75024</v>
